--- a/Modulo5/src/out/info_estados/South Dakota.xlsx
+++ b/Modulo5/src/out/info_estados/South Dakota.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="91">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>S</t>
@@ -716,14 +722,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="M2">
         <v>46003</v>
@@ -760,14 +766,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>88</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="M3">
         <v>46003</v>
@@ -804,14 +810,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>89</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="M4">
         <v>46003</v>
@@ -848,14 +854,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M5">
         <v>46003</v>
@@ -892,14 +898,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="M6">
         <v>46003</v>
@@ -936,14 +942,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>374</v>
       </c>
       <c r="M7">
         <v>46005</v>
@@ -980,14 +986,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>502</v>
       </c>
       <c r="M8">
         <v>46005</v>
@@ -1024,14 +1030,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>89</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>455</v>
       </c>
       <c r="M9">
         <v>46005</v>
@@ -1068,14 +1074,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>89</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="M10">
         <v>46005</v>
@@ -1112,14 +1118,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>89</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="M11">
         <v>46005</v>
@@ -1156,14 +1162,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>88</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="M12">
         <v>46007</v>
@@ -1200,14 +1206,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>88</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="M13">
         <v>46007</v>
@@ -1244,14 +1250,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>89</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="M14">
         <v>46007</v>
@@ -1288,14 +1294,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>89</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M15">
         <v>46007</v>
@@ -1332,14 +1338,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>89</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M16">
         <v>46007</v>
@@ -1376,14 +1382,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>88</v>
       </c>
       <c r="K17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="M17">
         <v>46009</v>
@@ -1420,14 +1426,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>88</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>226</v>
       </c>
       <c r="M18">
         <v>46009</v>
@@ -1464,14 +1470,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>89</v>
       </c>
       <c r="K19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>344</v>
       </c>
       <c r="M19">
         <v>46009</v>
@@ -1508,14 +1514,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>89</v>
       </c>
       <c r="K20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="M20">
         <v>46009</v>
@@ -1552,14 +1558,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>89</v>
       </c>
       <c r="K21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="M21">
         <v>46009</v>
@@ -1596,14 +1602,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>88</v>
       </c>
       <c r="K22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>902</v>
       </c>
       <c r="M22">
         <v>46011</v>
@@ -1640,14 +1646,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>88</v>
       </c>
       <c r="K23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>956</v>
       </c>
       <c r="M23">
         <v>46011</v>
@@ -1684,14 +1690,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>89</v>
       </c>
       <c r="K24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>916</v>
       </c>
       <c r="M24">
         <v>46011</v>
@@ -1728,14 +1734,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>89</v>
       </c>
       <c r="K25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>376</v>
       </c>
       <c r="M25">
         <v>46011</v>
@@ -1772,14 +1778,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>89</v>
       </c>
       <c r="K26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>320</v>
       </c>
       <c r="M26">
         <v>46011</v>
@@ -1816,14 +1822,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>88</v>
       </c>
       <c r="K27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>1139</v>
       </c>
       <c r="M27">
         <v>46013</v>
@@ -1860,14 +1866,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>88</v>
       </c>
       <c r="K28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>1370</v>
       </c>
       <c r="M28">
         <v>46013</v>
@@ -1904,14 +1910,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>89</v>
       </c>
       <c r="K29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>1408</v>
       </c>
       <c r="M29">
         <v>46013</v>
@@ -1948,14 +1954,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>89</v>
       </c>
       <c r="K30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>372</v>
       </c>
       <c r="M30">
         <v>46013</v>
@@ -1992,14 +1998,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>89</v>
       </c>
       <c r="K31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>398</v>
       </c>
       <c r="M31">
         <v>46013</v>
@@ -2036,14 +2042,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>88</v>
       </c>
       <c r="K32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="M32">
         <v>46015</v>
@@ -2080,14 +2086,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>88</v>
       </c>
       <c r="K33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="M33">
         <v>46015</v>
@@ -2124,14 +2130,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>89</v>
       </c>
       <c r="K34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="M34">
         <v>46015</v>
@@ -2168,14 +2174,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>89</v>
       </c>
       <c r="K35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="M35">
         <v>46015</v>
@@ -2212,14 +2218,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>89</v>
       </c>
       <c r="K36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="M36">
         <v>46015</v>
@@ -2256,14 +2262,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>88</v>
       </c>
       <c r="K37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="M37">
         <v>46017</v>
@@ -2300,14 +2306,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>88</v>
       </c>
       <c r="K38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="M38">
         <v>46017</v>
@@ -2344,14 +2350,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>89</v>
       </c>
       <c r="K39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M39">
         <v>46017</v>
@@ -2388,14 +2394,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>89</v>
       </c>
       <c r="K40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M40">
         <v>46017</v>
@@ -2432,14 +2438,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>89</v>
       </c>
       <c r="K41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M41">
         <v>46017</v>
@@ -2476,14 +2482,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>88</v>
       </c>
       <c r="K42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>285</v>
       </c>
       <c r="M42">
         <v>46019</v>
@@ -2520,14 +2526,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>88</v>
       </c>
       <c r="K43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="M43">
         <v>46019</v>
@@ -2564,14 +2570,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>89</v>
       </c>
       <c r="K44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>1075</v>
       </c>
       <c r="M44">
         <v>46019</v>
@@ -2608,14 +2614,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>89</v>
       </c>
       <c r="K45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="M45">
         <v>46019</v>
@@ -2652,14 +2658,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>89</v>
       </c>
       <c r="K46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>247</v>
       </c>
       <c r="M46">
         <v>46019</v>
@@ -2696,14 +2702,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>88</v>
       </c>
       <c r="K47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M47">
         <v>46021</v>
@@ -2740,14 +2746,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>88</v>
       </c>
       <c r="K48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M48">
         <v>46021</v>
@@ -2784,14 +2790,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>89</v>
       </c>
       <c r="K49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>356</v>
       </c>
       <c r="M49">
         <v>46021</v>
@@ -2828,14 +2834,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>89</v>
       </c>
       <c r="K50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="M50">
         <v>46021</v>
@@ -2872,14 +2878,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>89</v>
       </c>
       <c r="K51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M51">
         <v>46021</v>
@@ -2916,14 +2922,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>88</v>
       </c>
       <c r="K52" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>278</v>
       </c>
       <c r="M52">
         <v>46023</v>
@@ -2960,14 +2966,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>88</v>
       </c>
       <c r="K53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>294</v>
       </c>
       <c r="M53">
         <v>46023</v>
@@ -3004,14 +3010,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>89</v>
       </c>
       <c r="K54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>405</v>
       </c>
       <c r="M54">
         <v>46023</v>
@@ -3048,14 +3054,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>89</v>
       </c>
       <c r="K55" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="M55">
         <v>46023</v>
@@ -3092,14 +3098,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>89</v>
       </c>
       <c r="K56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="M56">
         <v>46023</v>
@@ -3136,14 +3142,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>88</v>
       </c>
       <c r="K57" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="M57">
         <v>46025</v>
@@ -3180,14 +3186,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>88</v>
       </c>
       <c r="K58" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="M58">
         <v>46025</v>
@@ -3224,14 +3230,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>89</v>
       </c>
       <c r="K59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="M59">
         <v>46025</v>
@@ -3268,14 +3274,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>89</v>
       </c>
       <c r="K60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="M60">
         <v>46025</v>
@@ -3312,14 +3318,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>89</v>
       </c>
       <c r="K61" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="M61">
         <v>46025</v>
@@ -3356,14 +3362,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>88</v>
       </c>
       <c r="K62" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>610</v>
       </c>
       <c r="M62">
         <v>46027</v>
@@ -3400,14 +3406,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>88</v>
       </c>
       <c r="K63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>624</v>
       </c>
       <c r="M63">
         <v>46027</v>
@@ -3444,14 +3450,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>89</v>
       </c>
       <c r="K64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>321</v>
       </c>
       <c r="M64">
         <v>46027</v>
@@ -3488,14 +3494,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>89</v>
       </c>
       <c r="K65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="M65">
         <v>46027</v>
@@ -3532,14 +3538,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>89</v>
       </c>
       <c r="K66" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="M66">
         <v>46027</v>
@@ -3576,14 +3582,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>88</v>
       </c>
       <c r="K67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>646</v>
       </c>
       <c r="M67">
         <v>46029</v>
@@ -3620,14 +3626,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>88</v>
       </c>
       <c r="K68" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>829</v>
       </c>
       <c r="M68">
         <v>46029</v>
@@ -3664,14 +3670,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>89</v>
       </c>
       <c r="K69" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>1474</v>
       </c>
       <c r="M69">
         <v>46029</v>
@@ -3708,14 +3714,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>89</v>
       </c>
       <c r="K70" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>382</v>
       </c>
       <c r="M70">
         <v>46029</v>
@@ -3752,14 +3758,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>89</v>
       </c>
       <c r="K71" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>337</v>
       </c>
       <c r="M71">
         <v>46029</v>
@@ -3796,14 +3802,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>88</v>
       </c>
       <c r="K72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="M72">
         <v>46031</v>
@@ -3840,14 +3846,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>88</v>
       </c>
       <c r="K73" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="M73">
         <v>46031</v>
@@ -3884,14 +3890,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>89</v>
       </c>
       <c r="K74" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="M74">
         <v>46031</v>
@@ -3928,14 +3934,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>89</v>
       </c>
       <c r="K75" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M75">
         <v>46031</v>
@@ -3972,14 +3978,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>89</v>
       </c>
       <c r="K76" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M76">
         <v>46031</v>
@@ -4016,14 +4022,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>88</v>
       </c>
       <c r="K77" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>277</v>
       </c>
       <c r="M77">
         <v>46033</v>
@@ -4060,14 +4066,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>88</v>
       </c>
       <c r="K78" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="M78">
         <v>46033</v>
@@ -4104,14 +4110,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>89</v>
       </c>
       <c r="K79" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>1069</v>
       </c>
       <c r="M79">
         <v>46033</v>
@@ -4148,14 +4154,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>89</v>
       </c>
       <c r="K80" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="M80">
         <v>46033</v>
@@ -4192,14 +4198,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>89</v>
       </c>
       <c r="K81" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="M81">
         <v>46033</v>
@@ -4236,14 +4242,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>88</v>
       </c>
       <c r="K82" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>441</v>
       </c>
       <c r="M82">
         <v>46035</v>
@@ -4280,14 +4286,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>88</v>
       </c>
       <c r="K83" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>543</v>
       </c>
       <c r="M83">
         <v>46035</v>
@@ -4324,14 +4330,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>89</v>
       </c>
       <c r="K84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>809</v>
       </c>
       <c r="M84">
         <v>46035</v>
@@ -4368,14 +4374,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>89</v>
       </c>
       <c r="K85" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>215</v>
       </c>
       <c r="M85">
         <v>46035</v>
@@ -4412,14 +4418,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>89</v>
       </c>
       <c r="K86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="M86">
         <v>46035</v>
@@ -4456,14 +4462,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>88</v>
       </c>
       <c r="K87" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="M87">
         <v>46037</v>
@@ -4500,14 +4506,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>88</v>
       </c>
       <c r="K88" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>344</v>
       </c>
       <c r="M88">
         <v>46037</v>
@@ -4544,14 +4550,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>89</v>
       </c>
       <c r="K89" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="M89">
         <v>46037</v>
@@ -4588,14 +4594,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>89</v>
       </c>
       <c r="K90" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M90">
         <v>46037</v>
@@ -4632,14 +4638,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>89</v>
       </c>
       <c r="K91" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="M91">
         <v>46037</v>
@@ -4676,14 +4682,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>88</v>
       </c>
       <c r="K92" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="M92">
         <v>46039</v>
@@ -4720,14 +4726,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>88</v>
       </c>
       <c r="K93" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="M93">
         <v>46039</v>
@@ -4764,14 +4770,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>89</v>
       </c>
       <c r="K94" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="M94">
         <v>46039</v>
@@ -4808,14 +4814,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>89</v>
       </c>
       <c r="K95" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="M95">
         <v>46039</v>
@@ -4852,14 +4858,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>89</v>
       </c>
       <c r="K96" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="M96">
         <v>46039</v>
@@ -4896,14 +4902,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>88</v>
       </c>
       <c r="K97" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="M97">
         <v>46041</v>
@@ -4940,14 +4946,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>88</v>
       </c>
       <c r="K98" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="M98">
         <v>46041</v>
@@ -4984,14 +4990,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>89</v>
       </c>
       <c r="K99" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="M99">
         <v>46041</v>
@@ -5028,14 +5034,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>89</v>
       </c>
       <c r="K100" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M100">
         <v>46041</v>
@@ -5072,14 +5078,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>89</v>
       </c>
       <c r="K101" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="M101">
         <v>46041</v>
@@ -5116,14 +5122,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>88</v>
       </c>
       <c r="K102" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M102">
         <v>46043</v>
@@ -5160,14 +5166,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>88</v>
       </c>
       <c r="K103" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="M103">
         <v>46043</v>
@@ -5204,14 +5210,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>89</v>
       </c>
       <c r="K104" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="M104">
         <v>46043</v>
@@ -5248,14 +5254,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>89</v>
       </c>
       <c r="K105" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="M105">
         <v>46043</v>
@@ -5292,14 +5298,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>89</v>
       </c>
       <c r="K106" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="M106">
         <v>46043</v>
@@ -5336,14 +5342,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>88</v>
       </c>
       <c r="K107" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="M107">
         <v>46045</v>
@@ -5380,14 +5386,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>88</v>
       </c>
       <c r="K108" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="M108">
         <v>46045</v>
@@ -5424,14 +5430,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>89</v>
       </c>
       <c r="K109" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>427</v>
       </c>
       <c r="M109">
         <v>46045</v>
@@ -5468,14 +5474,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>89</v>
       </c>
       <c r="K110" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="M110">
         <v>46045</v>
@@ -5512,14 +5518,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>89</v>
       </c>
       <c r="K111" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="M111">
         <v>46045</v>
@@ -5556,14 +5562,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>88</v>
       </c>
       <c r="K112" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>305</v>
       </c>
       <c r="M112">
         <v>46047</v>
@@ -5600,14 +5606,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>88</v>
       </c>
       <c r="K113" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="M113">
         <v>46047</v>
@@ -5644,14 +5650,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>89</v>
       </c>
       <c r="K114" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>924</v>
       </c>
       <c r="M114">
         <v>46047</v>
@@ -5688,14 +5694,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>89</v>
       </c>
       <c r="K115" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="M115">
         <v>46047</v>
@@ -5732,14 +5738,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>89</v>
       </c>
       <c r="K116" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="M116">
         <v>46047</v>
@@ -5776,14 +5782,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>88</v>
       </c>
       <c r="K117" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="M117">
         <v>46049</v>
@@ -5820,14 +5826,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>88</v>
       </c>
       <c r="K118" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="M118">
         <v>46049</v>
@@ -5864,14 +5870,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>89</v>
       </c>
       <c r="K119" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="M119">
         <v>46049</v>
@@ -5908,14 +5914,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>89</v>
       </c>
       <c r="K120" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M120">
         <v>46049</v>
@@ -5952,14 +5958,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>89</v>
       </c>
       <c r="K121" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="M121">
         <v>46049</v>
@@ -5996,14 +6002,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>3</v>
+      <c r="J122" t="s">
+        <v>88</v>
       </c>
       <c r="K122" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>420</v>
       </c>
       <c r="M122">
         <v>46051</v>
@@ -6040,14 +6046,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>3</v>
+      <c r="J123" t="s">
+        <v>88</v>
       </c>
       <c r="K123" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>529</v>
       </c>
       <c r="M123">
         <v>46051</v>
@@ -6084,14 +6090,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>3</v>
+      <c r="J124" t="s">
+        <v>89</v>
       </c>
       <c r="K124" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>851</v>
       </c>
       <c r="M124">
         <v>46051</v>
@@ -6128,14 +6134,14 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>3</v>
+      <c r="J125" t="s">
+        <v>89</v>
       </c>
       <c r="K125" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="M125">
         <v>46051</v>
@@ -6172,14 +6178,14 @@
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>3</v>
+      <c r="J126" t="s">
+        <v>89</v>
       </c>
       <c r="K126" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="M126">
         <v>46051</v>
@@ -6216,14 +6222,14 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>3</v>
+      <c r="J127" t="s">
+        <v>88</v>
       </c>
       <c r="K127" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="M127">
         <v>46053</v>
@@ -6260,14 +6266,14 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>3</v>
+      <c r="J128" t="s">
+        <v>88</v>
       </c>
       <c r="K128" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="M128">
         <v>46053</v>
@@ -6304,14 +6310,14 @@
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>3</v>
+      <c r="J129" t="s">
+        <v>89</v>
       </c>
       <c r="K129" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>342</v>
       </c>
       <c r="M129">
         <v>46053</v>
@@ -6348,14 +6354,14 @@
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>3</v>
+      <c r="J130" t="s">
+        <v>89</v>
       </c>
       <c r="K130" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="M130">
         <v>46053</v>
@@ -6392,14 +6398,14 @@
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>3</v>
+      <c r="J131" t="s">
+        <v>89</v>
       </c>
       <c r="K131" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="M131">
         <v>46053</v>
@@ -6436,14 +6442,14 @@
       <c r="I132">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>3</v>
+      <c r="J132" t="s">
+        <v>88</v>
       </c>
       <c r="K132" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="M132">
         <v>46055</v>
@@ -6480,14 +6486,14 @@
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>3</v>
+      <c r="J133" t="s">
+        <v>88</v>
       </c>
       <c r="K133" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M133">
         <v>46055</v>
@@ -6524,14 +6530,14 @@
       <c r="I134">
         <v>1</v>
       </c>
-      <c r="J134">
-        <v>3</v>
+      <c r="J134" t="s">
+        <v>89</v>
       </c>
       <c r="K134" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>398</v>
       </c>
       <c r="M134">
         <v>46055</v>
@@ -6568,14 +6574,14 @@
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>3</v>
+      <c r="J135" t="s">
+        <v>89</v>
       </c>
       <c r="K135" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="M135">
         <v>46055</v>
@@ -6612,14 +6618,14 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136">
-        <v>3</v>
+      <c r="J136" t="s">
+        <v>89</v>
       </c>
       <c r="K136" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="M136">
         <v>46055</v>
@@ -6656,14 +6662,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137">
-        <v>3</v>
+      <c r="J137" t="s">
+        <v>88</v>
       </c>
       <c r="K137" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="M137">
         <v>46057</v>
@@ -6700,14 +6706,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138">
-        <v>3</v>
+      <c r="J138" t="s">
+        <v>88</v>
       </c>
       <c r="K138" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="M138">
         <v>46057</v>
@@ -6744,14 +6750,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139">
-        <v>3</v>
+      <c r="J139" t="s">
+        <v>89</v>
       </c>
       <c r="K139" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>490</v>
       </c>
       <c r="M139">
         <v>46057</v>
@@ -6788,14 +6794,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>3</v>
+      <c r="J140" t="s">
+        <v>89</v>
       </c>
       <c r="K140" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="M140">
         <v>46057</v>
@@ -6832,14 +6838,14 @@
       <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>3</v>
+      <c r="J141" t="s">
+        <v>89</v>
       </c>
       <c r="K141" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="M141">
         <v>46057</v>
@@ -6876,14 +6882,14 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142">
-        <v>3</v>
+      <c r="J142" t="s">
+        <v>88</v>
       </c>
       <c r="K142" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="M142">
         <v>46059</v>
@@ -6920,14 +6926,14 @@
       <c r="I143">
         <v>1</v>
       </c>
-      <c r="J143">
-        <v>3</v>
+      <c r="J143" t="s">
+        <v>88</v>
       </c>
       <c r="K143" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="M143">
         <v>46059</v>
@@ -6964,14 +6970,14 @@
       <c r="I144">
         <v>1</v>
       </c>
-      <c r="J144">
-        <v>3</v>
+      <c r="J144" t="s">
+        <v>89</v>
       </c>
       <c r="K144" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>386</v>
       </c>
       <c r="M144">
         <v>46059</v>
@@ -7008,14 +7014,14 @@
       <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145">
-        <v>3</v>
+      <c r="J145" t="s">
+        <v>89</v>
       </c>
       <c r="K145" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="M145">
         <v>46059</v>
@@ -7052,14 +7058,14 @@
       <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146">
-        <v>3</v>
+      <c r="J146" t="s">
+        <v>89</v>
       </c>
       <c r="K146" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="M146">
         <v>46059</v>
@@ -7096,14 +7102,14 @@
       <c r="I147">
         <v>1</v>
       </c>
-      <c r="J147">
-        <v>3</v>
+      <c r="J147" t="s">
+        <v>88</v>
       </c>
       <c r="K147" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="M147">
         <v>46061</v>
@@ -7140,14 +7146,14 @@
       <c r="I148">
         <v>1</v>
       </c>
-      <c r="J148">
-        <v>3</v>
+      <c r="J148" t="s">
+        <v>88</v>
       </c>
       <c r="K148" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="M148">
         <v>46061</v>
@@ -7184,14 +7190,14 @@
       <c r="I149">
         <v>1</v>
       </c>
-      <c r="J149">
-        <v>3</v>
+      <c r="J149" t="s">
+        <v>89</v>
       </c>
       <c r="K149" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>306</v>
       </c>
       <c r="M149">
         <v>46061</v>
@@ -7228,14 +7234,14 @@
       <c r="I150">
         <v>1</v>
       </c>
-      <c r="J150">
-        <v>3</v>
+      <c r="J150" t="s">
+        <v>89</v>
       </c>
       <c r="K150" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="M150">
         <v>46061</v>
@@ -7272,14 +7278,14 @@
       <c r="I151">
         <v>1</v>
       </c>
-      <c r="J151">
-        <v>3</v>
+      <c r="J151" t="s">
+        <v>89</v>
       </c>
       <c r="K151" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="M151">
         <v>46061</v>
@@ -7316,14 +7322,14 @@
       <c r="I152">
         <v>1</v>
       </c>
-      <c r="J152">
-        <v>3</v>
+      <c r="J152" t="s">
+        <v>88</v>
       </c>
       <c r="K152" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="M152">
         <v>46063</v>
@@ -7360,14 +7366,14 @@
       <c r="I153">
         <v>1</v>
       </c>
-      <c r="J153">
-        <v>3</v>
+      <c r="J153" t="s">
+        <v>88</v>
       </c>
       <c r="K153" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M153">
         <v>46063</v>
@@ -7404,14 +7410,14 @@
       <c r="I154">
         <v>1</v>
       </c>
-      <c r="J154">
-        <v>3</v>
+      <c r="J154" t="s">
+        <v>89</v>
       </c>
       <c r="K154" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>299</v>
       </c>
       <c r="M154">
         <v>46063</v>
@@ -7448,14 +7454,14 @@
       <c r="I155">
         <v>1</v>
       </c>
-      <c r="J155">
-        <v>3</v>
+      <c r="J155" t="s">
+        <v>89</v>
       </c>
       <c r="K155" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M155">
         <v>46063</v>
@@ -7492,14 +7498,14 @@
       <c r="I156">
         <v>1</v>
       </c>
-      <c r="J156">
-        <v>3</v>
+      <c r="J156" t="s">
+        <v>89</v>
       </c>
       <c r="K156" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="M156">
         <v>46063</v>
@@ -7536,14 +7542,14 @@
       <c r="I157">
         <v>1</v>
       </c>
-      <c r="J157">
-        <v>3</v>
+      <c r="J157" t="s">
+        <v>88</v>
       </c>
       <c r="K157" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>490</v>
       </c>
       <c r="M157">
         <v>46065</v>
@@ -7580,14 +7586,14 @@
       <c r="I158">
         <v>1</v>
       </c>
-      <c r="J158">
-        <v>3</v>
+      <c r="J158" t="s">
+        <v>88</v>
       </c>
       <c r="K158" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>529</v>
       </c>
       <c r="M158">
         <v>46065</v>
@@ -7624,14 +7630,14 @@
       <c r="I159">
         <v>1</v>
       </c>
-      <c r="J159">
-        <v>3</v>
+      <c r="J159" t="s">
+        <v>89</v>
       </c>
       <c r="K159" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>1607</v>
       </c>
       <c r="M159">
         <v>46065</v>
@@ -7668,14 +7674,14 @@
       <c r="I160">
         <v>1</v>
       </c>
-      <c r="J160">
-        <v>3</v>
+      <c r="J160" t="s">
+        <v>89</v>
       </c>
       <c r="K160" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>602</v>
       </c>
       <c r="M160">
         <v>46065</v>
@@ -7712,14 +7718,14 @@
       <c r="I161">
         <v>1</v>
       </c>
-      <c r="J161">
-        <v>3</v>
+      <c r="J161" t="s">
+        <v>89</v>
       </c>
       <c r="K161" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>356</v>
       </c>
       <c r="M161">
         <v>46065</v>
@@ -7756,14 +7762,14 @@
       <c r="I162">
         <v>1</v>
       </c>
-      <c r="J162">
-        <v>3</v>
+      <c r="J162" t="s">
+        <v>88</v>
       </c>
       <c r="K162" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="M162">
         <v>46067</v>
@@ -7800,14 +7806,14 @@
       <c r="I163">
         <v>1</v>
       </c>
-      <c r="J163">
-        <v>3</v>
+      <c r="J163" t="s">
+        <v>88</v>
       </c>
       <c r="K163" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="M163">
         <v>46067</v>
@@ -7844,14 +7850,14 @@
       <c r="I164">
         <v>1</v>
       </c>
-      <c r="J164">
-        <v>3</v>
+      <c r="J164" t="s">
+        <v>89</v>
       </c>
       <c r="K164" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>623</v>
       </c>
       <c r="M164">
         <v>46067</v>
@@ -7888,14 +7894,14 @@
       <c r="I165">
         <v>1</v>
       </c>
-      <c r="J165">
-        <v>3</v>
+      <c r="J165" t="s">
+        <v>89</v>
       </c>
       <c r="K165" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="M165">
         <v>46067</v>
@@ -7932,14 +7938,14 @@
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="J166">
-        <v>3</v>
+      <c r="J166" t="s">
+        <v>89</v>
       </c>
       <c r="K166" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="M166">
         <v>46067</v>
@@ -7976,14 +7982,14 @@
       <c r="I167">
         <v>1</v>
       </c>
-      <c r="J167">
-        <v>3</v>
+      <c r="J167" t="s">
+        <v>88</v>
       </c>
       <c r="K167" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M167">
         <v>46069</v>
@@ -8020,14 +8026,14 @@
       <c r="I168">
         <v>1</v>
       </c>
-      <c r="J168">
-        <v>3</v>
+      <c r="J168" t="s">
+        <v>88</v>
       </c>
       <c r="K168" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="M168">
         <v>46069</v>
@@ -8064,14 +8070,14 @@
       <c r="I169">
         <v>1</v>
       </c>
-      <c r="J169">
-        <v>3</v>
+      <c r="J169" t="s">
+        <v>89</v>
       </c>
       <c r="K169" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="M169">
         <v>46069</v>
@@ -8108,14 +8114,14 @@
       <c r="I170">
         <v>1</v>
       </c>
-      <c r="J170">
-        <v>3</v>
+      <c r="J170" t="s">
+        <v>89</v>
       </c>
       <c r="K170" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M170">
         <v>46069</v>
@@ -8152,14 +8158,14 @@
       <c r="I171">
         <v>1</v>
       </c>
-      <c r="J171">
-        <v>3</v>
+      <c r="J171" t="s">
+        <v>89</v>
       </c>
       <c r="K171" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M171">
         <v>46069</v>
@@ -8196,14 +8202,14 @@
       <c r="I172">
         <v>1</v>
       </c>
-      <c r="J172">
-        <v>3</v>
+      <c r="J172" t="s">
+        <v>88</v>
       </c>
       <c r="K172" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="M172">
         <v>46071</v>
@@ -8240,14 +8246,14 @@
       <c r="I173">
         <v>1</v>
       </c>
-      <c r="J173">
-        <v>3</v>
+      <c r="J173" t="s">
+        <v>88</v>
       </c>
       <c r="K173" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="M173">
         <v>46071</v>
@@ -8284,14 +8290,14 @@
       <c r="I174">
         <v>1</v>
       </c>
-      <c r="J174">
-        <v>3</v>
+      <c r="J174" t="s">
+        <v>89</v>
       </c>
       <c r="K174" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="M174">
         <v>46071</v>
@@ -8328,14 +8334,14 @@
       <c r="I175">
         <v>1</v>
       </c>
-      <c r="J175">
-        <v>3</v>
+      <c r="J175" t="s">
+        <v>89</v>
       </c>
       <c r="K175" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="M175">
         <v>46071</v>
@@ -8372,14 +8378,14 @@
       <c r="I176">
         <v>1</v>
       </c>
-      <c r="J176">
-        <v>3</v>
+      <c r="J176" t="s">
+        <v>89</v>
       </c>
       <c r="K176" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M176">
         <v>46071</v>
@@ -8416,14 +8422,14 @@
       <c r="I177">
         <v>1</v>
       </c>
-      <c r="J177">
-        <v>3</v>
+      <c r="J177" t="s">
+        <v>88</v>
       </c>
       <c r="K177" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="M177">
         <v>46073</v>
@@ -8460,14 +8466,14 @@
       <c r="I178">
         <v>1</v>
       </c>
-      <c r="J178">
-        <v>3</v>
+      <c r="J178" t="s">
+        <v>88</v>
       </c>
       <c r="K178" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="M178">
         <v>46073</v>
@@ -8504,14 +8510,14 @@
       <c r="I179">
         <v>1</v>
       </c>
-      <c r="J179">
-        <v>3</v>
+      <c r="J179" t="s">
+        <v>89</v>
       </c>
       <c r="K179" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="M179">
         <v>46073</v>
@@ -8548,14 +8554,14 @@
       <c r="I180">
         <v>1</v>
       </c>
-      <c r="J180">
-        <v>3</v>
+      <c r="J180" t="s">
+        <v>89</v>
       </c>
       <c r="K180" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M180">
         <v>46073</v>
@@ -8592,14 +8598,14 @@
       <c r="I181">
         <v>1</v>
       </c>
-      <c r="J181">
-        <v>3</v>
+      <c r="J181" t="s">
+        <v>89</v>
       </c>
       <c r="K181" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M181">
         <v>46073</v>
@@ -8636,14 +8642,14 @@
       <c r="I182">
         <v>1</v>
       </c>
-      <c r="J182">
-        <v>3</v>
+      <c r="J182" t="s">
+        <v>88</v>
       </c>
       <c r="K182" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M182">
         <v>46075</v>
@@ -8680,14 +8686,14 @@
       <c r="I183">
         <v>1</v>
       </c>
-      <c r="J183">
-        <v>3</v>
+      <c r="J183" t="s">
+        <v>88</v>
       </c>
       <c r="K183" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M183">
         <v>46075</v>
@@ -8724,14 +8730,14 @@
       <c r="I184">
         <v>1</v>
       </c>
-      <c r="J184">
-        <v>3</v>
+      <c r="J184" t="s">
+        <v>89</v>
       </c>
       <c r="K184" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="M184">
         <v>46075</v>
@@ -8768,14 +8774,14 @@
       <c r="I185">
         <v>1</v>
       </c>
-      <c r="J185">
-        <v>3</v>
+      <c r="J185" t="s">
+        <v>89</v>
       </c>
       <c r="K185" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="M185">
         <v>46075</v>
@@ -8812,14 +8818,14 @@
       <c r="I186">
         <v>1</v>
       </c>
-      <c r="J186">
-        <v>3</v>
+      <c r="J186" t="s">
+        <v>89</v>
       </c>
       <c r="K186" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="M186">
         <v>46075</v>
@@ -8856,14 +8862,14 @@
       <c r="I187">
         <v>1</v>
       </c>
-      <c r="J187">
-        <v>3</v>
+      <c r="J187" t="s">
+        <v>88</v>
       </c>
       <c r="K187" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="M187">
         <v>46077</v>
@@ -8900,14 +8906,14 @@
       <c r="I188">
         <v>1</v>
       </c>
-      <c r="J188">
-        <v>3</v>
+      <c r="J188" t="s">
+        <v>88</v>
       </c>
       <c r="K188" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L188">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="M188">
         <v>46077</v>
@@ -8944,14 +8950,14 @@
       <c r="I189">
         <v>1</v>
       </c>
-      <c r="J189">
-        <v>3</v>
+      <c r="J189" t="s">
+        <v>89</v>
       </c>
       <c r="K189" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>422</v>
       </c>
       <c r="M189">
         <v>46077</v>
@@ -8988,14 +8994,14 @@
       <c r="I190">
         <v>1</v>
       </c>
-      <c r="J190">
-        <v>3</v>
+      <c r="J190" t="s">
+        <v>89</v>
       </c>
       <c r="K190" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="M190">
         <v>46077</v>
@@ -9032,14 +9038,14 @@
       <c r="I191">
         <v>1</v>
       </c>
-      <c r="J191">
-        <v>3</v>
+      <c r="J191" t="s">
+        <v>89</v>
       </c>
       <c r="K191" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="M191">
         <v>46077</v>
@@ -9076,14 +9082,14 @@
       <c r="I192">
         <v>1</v>
       </c>
-      <c r="J192">
-        <v>3</v>
+      <c r="J192" t="s">
+        <v>88</v>
       </c>
       <c r="K192" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>457</v>
       </c>
       <c r="M192">
         <v>46079</v>
@@ -9120,14 +9126,14 @@
       <c r="I193">
         <v>1</v>
       </c>
-      <c r="J193">
-        <v>3</v>
+      <c r="J193" t="s">
+        <v>88</v>
       </c>
       <c r="K193" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>485</v>
       </c>
       <c r="M193">
         <v>46079</v>
@@ -9164,14 +9170,14 @@
       <c r="I194">
         <v>1</v>
       </c>
-      <c r="J194">
-        <v>3</v>
+      <c r="J194" t="s">
+        <v>89</v>
       </c>
       <c r="K194" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>620</v>
       </c>
       <c r="M194">
         <v>46079</v>
@@ -9208,14 +9214,14 @@
       <c r="I195">
         <v>1</v>
       </c>
-      <c r="J195">
-        <v>3</v>
+      <c r="J195" t="s">
+        <v>89</v>
       </c>
       <c r="K195" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="M195">
         <v>46079</v>
@@ -9252,14 +9258,14 @@
       <c r="I196">
         <v>1</v>
       </c>
-      <c r="J196">
-        <v>3</v>
+      <c r="J196" t="s">
+        <v>89</v>
       </c>
       <c r="K196" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="M196">
         <v>46079</v>
@@ -9296,14 +9302,14 @@
       <c r="I197">
         <v>1</v>
       </c>
-      <c r="J197">
-        <v>3</v>
+      <c r="J197" t="s">
+        <v>88</v>
       </c>
       <c r="K197" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L197">
-        <v>4</v>
+        <v>942</v>
       </c>
       <c r="M197">
         <v>46081</v>
@@ -9340,14 +9346,14 @@
       <c r="I198">
         <v>1</v>
       </c>
-      <c r="J198">
-        <v>3</v>
+      <c r="J198" t="s">
+        <v>88</v>
       </c>
       <c r="K198" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>706</v>
       </c>
       <c r="M198">
         <v>46081</v>
@@ -9384,14 +9390,14 @@
       <c r="I199">
         <v>1</v>
       </c>
-      <c r="J199">
-        <v>3</v>
+      <c r="J199" t="s">
+        <v>89</v>
       </c>
       <c r="K199" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>1802</v>
       </c>
       <c r="M199">
         <v>46081</v>
@@ -9428,14 +9434,14 @@
       <c r="I200">
         <v>1</v>
       </c>
-      <c r="J200">
-        <v>3</v>
+      <c r="J200" t="s">
+        <v>89</v>
       </c>
       <c r="K200" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>454</v>
       </c>
       <c r="M200">
         <v>46081</v>
@@ -9472,14 +9478,14 @@
       <c r="I201">
         <v>1</v>
       </c>
-      <c r="J201">
-        <v>3</v>
+      <c r="J201" t="s">
+        <v>89</v>
       </c>
       <c r="K201" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>373</v>
       </c>
       <c r="M201">
         <v>46081</v>
@@ -9516,14 +9522,14 @@
       <c r="I202">
         <v>1</v>
       </c>
-      <c r="J202">
-        <v>3</v>
+      <c r="J202" t="s">
+        <v>88</v>
       </c>
       <c r="K202" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L202">
-        <v>4</v>
+        <v>1153</v>
       </c>
       <c r="M202">
         <v>46083</v>
@@ -9560,14 +9566,14 @@
       <c r="I203">
         <v>1</v>
       </c>
-      <c r="J203">
-        <v>3</v>
+      <c r="J203" t="s">
+        <v>88</v>
       </c>
       <c r="K203" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>1437</v>
       </c>
       <c r="M203">
         <v>46083</v>
@@ -9604,14 +9610,14 @@
       <c r="I204">
         <v>1</v>
       </c>
-      <c r="J204">
-        <v>3</v>
+      <c r="J204" t="s">
+        <v>89</v>
       </c>
       <c r="K204" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>1761</v>
       </c>
       <c r="M204">
         <v>46083</v>
@@ -9648,14 +9654,14 @@
       <c r="I205">
         <v>1</v>
       </c>
-      <c r="J205">
-        <v>3</v>
+      <c r="J205" t="s">
+        <v>89</v>
       </c>
       <c r="K205" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>524</v>
       </c>
       <c r="M205">
         <v>46083</v>
@@ -9692,14 +9698,14 @@
       <c r="I206">
         <v>1</v>
       </c>
-      <c r="J206">
-        <v>3</v>
+      <c r="J206" t="s">
+        <v>89</v>
       </c>
       <c r="K206" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>588</v>
       </c>
       <c r="M206">
         <v>46083</v>
@@ -9736,14 +9742,14 @@
       <c r="I207">
         <v>1</v>
       </c>
-      <c r="J207">
-        <v>3</v>
+      <c r="J207" t="s">
+        <v>88</v>
       </c>
       <c r="K207" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="M207">
         <v>46085</v>
@@ -9780,14 +9786,14 @@
       <c r="I208">
         <v>1</v>
       </c>
-      <c r="J208">
-        <v>3</v>
+      <c r="J208" t="s">
+        <v>88</v>
       </c>
       <c r="K208" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="M208">
         <v>46085</v>
@@ -9824,14 +9830,14 @@
       <c r="I209">
         <v>1</v>
       </c>
-      <c r="J209">
-        <v>3</v>
+      <c r="J209" t="s">
+        <v>89</v>
       </c>
       <c r="K209" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>433</v>
       </c>
       <c r="M209">
         <v>46085</v>
@@ -9868,14 +9874,14 @@
       <c r="I210">
         <v>1</v>
       </c>
-      <c r="J210">
-        <v>3</v>
+      <c r="J210" t="s">
+        <v>89</v>
       </c>
       <c r="K210" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L210">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="M210">
         <v>46085</v>
@@ -9912,14 +9918,14 @@
       <c r="I211">
         <v>1</v>
       </c>
-      <c r="J211">
-        <v>3</v>
+      <c r="J211" t="s">
+        <v>89</v>
       </c>
       <c r="K211" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L211">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="M211">
         <v>46085</v>
@@ -9956,14 +9962,14 @@
       <c r="I212">
         <v>1</v>
       </c>
-      <c r="J212">
-        <v>3</v>
+      <c r="J212" t="s">
+        <v>88</v>
       </c>
       <c r="K212" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="M212">
         <v>46091</v>
@@ -10000,14 +10006,14 @@
       <c r="I213">
         <v>1</v>
       </c>
-      <c r="J213">
-        <v>3</v>
+      <c r="J213" t="s">
+        <v>88</v>
       </c>
       <c r="K213" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>288</v>
       </c>
       <c r="M213">
         <v>46091</v>
@@ -10044,14 +10050,14 @@
       <c r="I214">
         <v>1</v>
       </c>
-      <c r="J214">
-        <v>3</v>
+      <c r="J214" t="s">
+        <v>89</v>
       </c>
       <c r="K214" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="M214">
         <v>46091</v>
@@ -10088,14 +10094,14 @@
       <c r="I215">
         <v>1</v>
       </c>
-      <c r="J215">
-        <v>3</v>
+      <c r="J215" t="s">
+        <v>89</v>
       </c>
       <c r="K215" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="M215">
         <v>46091</v>
@@ -10132,14 +10138,14 @@
       <c r="I216">
         <v>1</v>
       </c>
-      <c r="J216">
-        <v>3</v>
+      <c r="J216" t="s">
+        <v>89</v>
       </c>
       <c r="K216" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L216">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="M216">
         <v>46091</v>
@@ -10176,14 +10182,14 @@
       <c r="I217">
         <v>1</v>
       </c>
-      <c r="J217">
-        <v>3</v>
+      <c r="J217" t="s">
+        <v>88</v>
       </c>
       <c r="K217" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L217">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="M217">
         <v>46087</v>
@@ -10220,14 +10226,14 @@
       <c r="I218">
         <v>1</v>
       </c>
-      <c r="J218">
-        <v>3</v>
+      <c r="J218" t="s">
+        <v>88</v>
       </c>
       <c r="K218" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L218">
-        <v>4</v>
+        <v>215</v>
       </c>
       <c r="M218">
         <v>46087</v>
@@ -10264,14 +10270,14 @@
       <c r="I219">
         <v>1</v>
       </c>
-      <c r="J219">
-        <v>3</v>
+      <c r="J219" t="s">
+        <v>89</v>
       </c>
       <c r="K219" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>321</v>
       </c>
       <c r="M219">
         <v>46087</v>
@@ -10308,14 +10314,14 @@
       <c r="I220">
         <v>1</v>
       </c>
-      <c r="J220">
-        <v>3</v>
+      <c r="J220" t="s">
+        <v>89</v>
       </c>
       <c r="K220" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="M220">
         <v>46087</v>
@@ -10352,14 +10358,14 @@
       <c r="I221">
         <v>1</v>
       </c>
-      <c r="J221">
-        <v>3</v>
+      <c r="J221" t="s">
+        <v>89</v>
       </c>
       <c r="K221" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="M221">
         <v>46087</v>
@@ -10396,14 +10402,14 @@
       <c r="I222">
         <v>1</v>
       </c>
-      <c r="J222">
-        <v>3</v>
+      <c r="J222" t="s">
+        <v>88</v>
       </c>
       <c r="K222" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M222">
         <v>46089</v>
@@ -10440,14 +10446,14 @@
       <c r="I223">
         <v>1</v>
       </c>
-      <c r="J223">
-        <v>3</v>
+      <c r="J223" t="s">
+        <v>88</v>
       </c>
       <c r="K223" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="M223">
         <v>46089</v>
@@ -10484,14 +10490,14 @@
       <c r="I224">
         <v>1</v>
       </c>
-      <c r="J224">
-        <v>3</v>
+      <c r="J224" t="s">
+        <v>89</v>
       </c>
       <c r="K224" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>341</v>
       </c>
       <c r="M224">
         <v>46089</v>
@@ -10528,14 +10534,14 @@
       <c r="I225">
         <v>1</v>
       </c>
-      <c r="J225">
-        <v>3</v>
+      <c r="J225" t="s">
+        <v>89</v>
       </c>
       <c r="K225" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="M225">
         <v>46089</v>
@@ -10572,14 +10578,14 @@
       <c r="I226">
         <v>1</v>
       </c>
-      <c r="J226">
-        <v>3</v>
+      <c r="J226" t="s">
+        <v>89</v>
       </c>
       <c r="K226" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="M226">
         <v>46089</v>
@@ -10616,14 +10622,14 @@
       <c r="I227">
         <v>1</v>
       </c>
-      <c r="J227">
-        <v>3</v>
+      <c r="J227" t="s">
+        <v>88</v>
       </c>
       <c r="K227" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L227">
-        <v>4</v>
+        <v>697</v>
       </c>
       <c r="M227">
         <v>46093</v>
@@ -10660,14 +10666,14 @@
       <c r="I228">
         <v>1</v>
       </c>
-      <c r="J228">
-        <v>3</v>
+      <c r="J228" t="s">
+        <v>88</v>
       </c>
       <c r="K228" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L228">
-        <v>4</v>
+        <v>531</v>
       </c>
       <c r="M228">
         <v>46093</v>
@@ -10704,14 +10710,14 @@
       <c r="I229">
         <v>1</v>
       </c>
-      <c r="J229">
-        <v>3</v>
+      <c r="J229" t="s">
+        <v>89</v>
       </c>
       <c r="K229" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>2205</v>
       </c>
       <c r="M229">
         <v>46093</v>
@@ -10748,14 +10754,14 @@
       <c r="I230">
         <v>1</v>
       </c>
-      <c r="J230">
-        <v>3</v>
+      <c r="J230" t="s">
+        <v>89</v>
       </c>
       <c r="K230" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>427</v>
       </c>
       <c r="M230">
         <v>46093</v>
@@ -10792,14 +10798,14 @@
       <c r="I231">
         <v>1</v>
       </c>
-      <c r="J231">
-        <v>3</v>
+      <c r="J231" t="s">
+        <v>89</v>
       </c>
       <c r="K231" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="M231">
         <v>46093</v>
@@ -10836,14 +10842,14 @@
       <c r="I232">
         <v>1</v>
       </c>
-      <c r="J232">
-        <v>3</v>
+      <c r="J232" t="s">
+        <v>88</v>
       </c>
       <c r="K232" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="M232">
         <v>46095</v>
@@ -10880,14 +10886,14 @@
       <c r="I233">
         <v>1</v>
       </c>
-      <c r="J233">
-        <v>3</v>
+      <c r="J233" t="s">
+        <v>88</v>
       </c>
       <c r="K233" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="M233">
         <v>46095</v>
@@ -10924,14 +10930,14 @@
       <c r="I234">
         <v>1</v>
       </c>
-      <c r="J234">
-        <v>3</v>
+      <c r="J234" t="s">
+        <v>89</v>
       </c>
       <c r="K234" t="s">
+        <v>90</v>
+      </c>
+      <c r="L234">
         <v>88</v>
-      </c>
-      <c r="L234">
-        <v>4</v>
       </c>
       <c r="M234">
         <v>46095</v>
@@ -10968,14 +10974,14 @@
       <c r="I235">
         <v>1</v>
       </c>
-      <c r="J235">
-        <v>3</v>
+      <c r="J235" t="s">
+        <v>89</v>
       </c>
       <c r="K235" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M235">
         <v>46095</v>
@@ -11012,14 +11018,14 @@
       <c r="I236">
         <v>1</v>
       </c>
-      <c r="J236">
-        <v>3</v>
+      <c r="J236" t="s">
+        <v>89</v>
       </c>
       <c r="K236" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M236">
         <v>46095</v>
@@ -11056,14 +11062,14 @@
       <c r="I237">
         <v>1</v>
       </c>
-      <c r="J237">
-        <v>3</v>
+      <c r="J237" t="s">
+        <v>88</v>
       </c>
       <c r="K237" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="M237">
         <v>46097</v>
@@ -11100,14 +11106,14 @@
       <c r="I238">
         <v>1</v>
       </c>
-      <c r="J238">
-        <v>3</v>
+      <c r="J238" t="s">
+        <v>88</v>
       </c>
       <c r="K238" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="M238">
         <v>46097</v>
@@ -11144,14 +11150,14 @@
       <c r="I239">
         <v>1</v>
       </c>
-      <c r="J239">
-        <v>3</v>
+      <c r="J239" t="s">
+        <v>89</v>
       </c>
       <c r="K239" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L239">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="M239">
         <v>46097</v>
@@ -11188,14 +11194,14 @@
       <c r="I240">
         <v>1</v>
       </c>
-      <c r="J240">
-        <v>3</v>
+      <c r="J240" t="s">
+        <v>89</v>
       </c>
       <c r="K240" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M240">
         <v>46097</v>
@@ -11232,14 +11238,14 @@
       <c r="I241">
         <v>1</v>
       </c>
-      <c r="J241">
-        <v>3</v>
+      <c r="J241" t="s">
+        <v>89</v>
       </c>
       <c r="K241" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M241">
         <v>46097</v>
@@ -11276,14 +11282,14 @@
       <c r="I242">
         <v>1</v>
       </c>
-      <c r="J242">
-        <v>3</v>
+      <c r="J242" t="s">
+        <v>88</v>
       </c>
       <c r="K242" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L242">
-        <v>4</v>
+        <v>5291</v>
       </c>
       <c r="M242">
         <v>46099</v>
@@ -11320,14 +11326,14 @@
       <c r="I243">
         <v>1</v>
       </c>
-      <c r="J243">
-        <v>3</v>
+      <c r="J243" t="s">
+        <v>88</v>
       </c>
       <c r="K243" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>6019</v>
       </c>
       <c r="M243">
         <v>46099</v>
@@ -11364,14 +11370,14 @@
       <c r="I244">
         <v>1</v>
       </c>
-      <c r="J244">
-        <v>3</v>
+      <c r="J244" t="s">
+        <v>89</v>
       </c>
       <c r="K244" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>5207</v>
       </c>
       <c r="M244">
         <v>46099</v>
@@ -11408,14 +11414,14 @@
       <c r="I245">
         <v>1</v>
       </c>
-      <c r="J245">
-        <v>3</v>
+      <c r="J245" t="s">
+        <v>89</v>
       </c>
       <c r="K245" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L245">
-        <v>4</v>
+        <v>1599</v>
       </c>
       <c r="M245">
         <v>46099</v>
@@ -11452,14 +11458,14 @@
       <c r="I246">
         <v>1</v>
       </c>
-      <c r="J246">
-        <v>3</v>
+      <c r="J246" t="s">
+        <v>89</v>
       </c>
       <c r="K246" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>1702</v>
       </c>
       <c r="M246">
         <v>46099</v>
@@ -11496,14 +11502,14 @@
       <c r="I247">
         <v>1</v>
       </c>
-      <c r="J247">
-        <v>3</v>
+      <c r="J247" t="s">
+        <v>88</v>
       </c>
       <c r="K247" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L247">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="M247">
         <v>46101</v>
@@ -11540,14 +11546,14 @@
       <c r="I248">
         <v>1</v>
       </c>
-      <c r="J248">
-        <v>3</v>
+      <c r="J248" t="s">
+        <v>88</v>
       </c>
       <c r="K248" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L248">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="M248">
         <v>46101</v>
@@ -11584,14 +11590,14 @@
       <c r="I249">
         <v>1</v>
       </c>
-      <c r="J249">
-        <v>3</v>
+      <c r="J249" t="s">
+        <v>89</v>
       </c>
       <c r="K249" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L249">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="M249">
         <v>46101</v>
@@ -11628,14 +11634,14 @@
       <c r="I250">
         <v>1</v>
       </c>
-      <c r="J250">
-        <v>3</v>
+      <c r="J250" t="s">
+        <v>89</v>
       </c>
       <c r="K250" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M250">
         <v>46101</v>
@@ -11672,14 +11678,14 @@
       <c r="I251">
         <v>1</v>
       </c>
-      <c r="J251">
-        <v>3</v>
+      <c r="J251" t="s">
+        <v>89</v>
       </c>
       <c r="K251" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="M251">
         <v>46101</v>
@@ -11716,14 +11722,14 @@
       <c r="I252">
         <v>1</v>
       </c>
-      <c r="J252">
-        <v>3</v>
+      <c r="J252" t="s">
+        <v>88</v>
       </c>
       <c r="K252" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>3997</v>
       </c>
       <c r="M252">
         <v>46103</v>
@@ -11760,14 +11766,14 @@
       <c r="I253">
         <v>1</v>
       </c>
-      <c r="J253">
-        <v>3</v>
+      <c r="J253" t="s">
+        <v>88</v>
       </c>
       <c r="K253" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L253">
-        <v>4</v>
+        <v>3385</v>
       </c>
       <c r="M253">
         <v>46103</v>
@@ -11804,14 +11810,14 @@
       <c r="I254">
         <v>1</v>
       </c>
-      <c r="J254">
-        <v>3</v>
+      <c r="J254" t="s">
+        <v>89</v>
       </c>
       <c r="K254" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>8163</v>
       </c>
       <c r="M254">
         <v>46103</v>
@@ -11848,14 +11854,14 @@
       <c r="I255">
         <v>1</v>
       </c>
-      <c r="J255">
-        <v>3</v>
+      <c r="J255" t="s">
+        <v>89</v>
       </c>
       <c r="K255" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>1801</v>
       </c>
       <c r="M255">
         <v>46103</v>
@@ -11892,14 +11898,14 @@
       <c r="I256">
         <v>1</v>
       </c>
-      <c r="J256">
-        <v>3</v>
+      <c r="J256" t="s">
+        <v>89</v>
       </c>
       <c r="K256" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>1930</v>
       </c>
       <c r="M256">
         <v>46103</v>
@@ -11936,14 +11942,14 @@
       <c r="I257">
         <v>1</v>
       </c>
-      <c r="J257">
-        <v>3</v>
+      <c r="J257" t="s">
+        <v>88</v>
       </c>
       <c r="K257" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L257">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="M257">
         <v>46105</v>
@@ -11980,14 +11986,14 @@
       <c r="I258">
         <v>1</v>
       </c>
-      <c r="J258">
-        <v>3</v>
+      <c r="J258" t="s">
+        <v>88</v>
       </c>
       <c r="K258" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L258">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="M258">
         <v>46105</v>
@@ -12024,14 +12030,14 @@
       <c r="I259">
         <v>1</v>
       </c>
-      <c r="J259">
-        <v>3</v>
+      <c r="J259" t="s">
+        <v>89</v>
       </c>
       <c r="K259" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>442</v>
       </c>
       <c r="M259">
         <v>46105</v>
@@ -12068,14 +12074,14 @@
       <c r="I260">
         <v>1</v>
       </c>
-      <c r="J260">
-        <v>3</v>
+      <c r="J260" t="s">
+        <v>89</v>
       </c>
       <c r="K260" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="M260">
         <v>46105</v>
@@ -12112,14 +12118,14 @@
       <c r="I261">
         <v>1</v>
       </c>
-      <c r="J261">
-        <v>3</v>
+      <c r="J261" t="s">
+        <v>89</v>
       </c>
       <c r="K261" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="M261">
         <v>46105</v>
@@ -12156,14 +12162,14 @@
       <c r="I262">
         <v>1</v>
       </c>
-      <c r="J262">
-        <v>3</v>
+      <c r="J262" t="s">
+        <v>88</v>
       </c>
       <c r="K262" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="M262">
         <v>46107</v>
@@ -12200,14 +12206,14 @@
       <c r="I263">
         <v>1</v>
       </c>
-      <c r="J263">
-        <v>3</v>
+      <c r="J263" t="s">
+        <v>88</v>
       </c>
       <c r="K263" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="M263">
         <v>46107</v>
@@ -12244,14 +12250,14 @@
       <c r="I264">
         <v>1</v>
       </c>
-      <c r="J264">
-        <v>3</v>
+      <c r="J264" t="s">
+        <v>89</v>
       </c>
       <c r="K264" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>580</v>
       </c>
       <c r="M264">
         <v>46107</v>
@@ -12288,14 +12294,14 @@
       <c r="I265">
         <v>1</v>
       </c>
-      <c r="J265">
-        <v>3</v>
+      <c r="J265" t="s">
+        <v>89</v>
       </c>
       <c r="K265" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="M265">
         <v>46107</v>
@@ -12332,14 +12338,14 @@
       <c r="I266">
         <v>1</v>
       </c>
-      <c r="J266">
-        <v>3</v>
+      <c r="J266" t="s">
+        <v>89</v>
       </c>
       <c r="K266" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L266">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="M266">
         <v>46107</v>
@@ -12376,14 +12382,14 @@
       <c r="I267">
         <v>1</v>
       </c>
-      <c r="J267">
-        <v>3</v>
+      <c r="J267" t="s">
+        <v>88</v>
       </c>
       <c r="K267" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>398</v>
       </c>
       <c r="M267">
         <v>46109</v>
@@ -12420,14 +12426,14 @@
       <c r="I268">
         <v>1</v>
       </c>
-      <c r="J268">
-        <v>3</v>
+      <c r="J268" t="s">
+        <v>88</v>
       </c>
       <c r="K268" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L268">
-        <v>4</v>
+        <v>393</v>
       </c>
       <c r="M268">
         <v>46109</v>
@@ -12464,14 +12470,14 @@
       <c r="I269">
         <v>1</v>
       </c>
-      <c r="J269">
-        <v>3</v>
+      <c r="J269" t="s">
+        <v>89</v>
       </c>
       <c r="K269" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L269">
-        <v>4</v>
+        <v>287</v>
       </c>
       <c r="M269">
         <v>46109</v>
@@ -12508,14 +12514,14 @@
       <c r="I270">
         <v>1</v>
       </c>
-      <c r="J270">
-        <v>3</v>
+      <c r="J270" t="s">
+        <v>89</v>
       </c>
       <c r="K270" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L270">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="M270">
         <v>46109</v>
@@ -12552,14 +12558,14 @@
       <c r="I271">
         <v>1</v>
       </c>
-      <c r="J271">
-        <v>3</v>
+      <c r="J271" t="s">
+        <v>89</v>
       </c>
       <c r="K271" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L271">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="M271">
         <v>46109</v>
@@ -12596,14 +12602,14 @@
       <c r="I272">
         <v>1</v>
       </c>
-      <c r="J272">
-        <v>3</v>
+      <c r="J272" t="s">
+        <v>88</v>
       </c>
       <c r="K272" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L272">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M272">
         <v>46111</v>
@@ -12640,14 +12646,14 @@
       <c r="I273">
         <v>1</v>
       </c>
-      <c r="J273">
-        <v>3</v>
+      <c r="J273" t="s">
+        <v>88</v>
       </c>
       <c r="K273" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L273">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="M273">
         <v>46111</v>
@@ -12684,14 +12690,14 @@
       <c r="I274">
         <v>1</v>
       </c>
-      <c r="J274">
-        <v>3</v>
+      <c r="J274" t="s">
+        <v>89</v>
       </c>
       <c r="K274" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L274">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="M274">
         <v>46111</v>
@@ -12728,14 +12734,14 @@
       <c r="I275">
         <v>1</v>
       </c>
-      <c r="J275">
-        <v>3</v>
+      <c r="J275" t="s">
+        <v>89</v>
       </c>
       <c r="K275" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L275">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M275">
         <v>46111</v>
@@ -12772,14 +12778,14 @@
       <c r="I276">
         <v>1</v>
       </c>
-      <c r="J276">
-        <v>3</v>
+      <c r="J276" t="s">
+        <v>89</v>
       </c>
       <c r="K276" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L276">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="M276">
         <v>46111</v>
@@ -12816,14 +12822,14 @@
       <c r="I277">
         <v>1</v>
       </c>
-      <c r="J277">
-        <v>3</v>
+      <c r="J277" t="s">
+        <v>88</v>
       </c>
       <c r="K277" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L277">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="M277">
         <v>46115</v>
@@ -12860,14 +12866,14 @@
       <c r="I278">
         <v>1</v>
       </c>
-      <c r="J278">
-        <v>3</v>
+      <c r="J278" t="s">
+        <v>88</v>
       </c>
       <c r="K278" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L278">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="M278">
         <v>46115</v>
@@ -12904,14 +12910,14 @@
       <c r="I279">
         <v>1</v>
       </c>
-      <c r="J279">
-        <v>3</v>
+      <c r="J279" t="s">
+        <v>89</v>
       </c>
       <c r="K279" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L279">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="M279">
         <v>46115</v>
@@ -12948,14 +12954,14 @@
       <c r="I280">
         <v>1</v>
       </c>
-      <c r="J280">
-        <v>3</v>
+      <c r="J280" t="s">
+        <v>89</v>
       </c>
       <c r="K280" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L280">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="M280">
         <v>46115</v>
@@ -12992,14 +12998,14 @@
       <c r="I281">
         <v>1</v>
       </c>
-      <c r="J281">
-        <v>3</v>
+      <c r="J281" t="s">
+        <v>89</v>
       </c>
       <c r="K281" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L281">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="M281">
         <v>46115</v>
@@ -13036,14 +13042,14 @@
       <c r="I282">
         <v>1</v>
       </c>
-      <c r="J282">
-        <v>3</v>
+      <c r="J282" t="s">
+        <v>88</v>
       </c>
       <c r="K282" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L282">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="M282">
         <v>46117</v>
@@ -13080,14 +13086,14 @@
       <c r="I283">
         <v>1</v>
       </c>
-      <c r="J283">
-        <v>3</v>
+      <c r="J283" t="s">
+        <v>88</v>
       </c>
       <c r="K283" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L283">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="M283">
         <v>46117</v>
@@ -13124,14 +13130,14 @@
       <c r="I284">
         <v>1</v>
       </c>
-      <c r="J284">
-        <v>3</v>
+      <c r="J284" t="s">
+        <v>89</v>
       </c>
       <c r="K284" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L284">
-        <v>4</v>
+        <v>353</v>
       </c>
       <c r="M284">
         <v>46117</v>
@@ -13168,14 +13174,14 @@
       <c r="I285">
         <v>1</v>
       </c>
-      <c r="J285">
-        <v>3</v>
+      <c r="J285" t="s">
+        <v>89</v>
       </c>
       <c r="K285" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L285">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="M285">
         <v>46117</v>
@@ -13212,14 +13218,14 @@
       <c r="I286">
         <v>1</v>
       </c>
-      <c r="J286">
-        <v>3</v>
+      <c r="J286" t="s">
+        <v>89</v>
       </c>
       <c r="K286" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L286">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M286">
         <v>46117</v>
@@ -13256,14 +13262,14 @@
       <c r="I287">
         <v>1</v>
       </c>
-      <c r="J287">
-        <v>3</v>
+      <c r="J287" t="s">
+        <v>88</v>
       </c>
       <c r="K287" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L287">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="M287">
         <v>46119</v>
@@ -13300,14 +13306,14 @@
       <c r="I288">
         <v>1</v>
       </c>
-      <c r="J288">
-        <v>3</v>
+      <c r="J288" t="s">
+        <v>88</v>
       </c>
       <c r="K288" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L288">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M288">
         <v>46119</v>
@@ -13344,14 +13350,14 @@
       <c r="I289">
         <v>1</v>
       </c>
-      <c r="J289">
-        <v>3</v>
+      <c r="J289" t="s">
+        <v>89</v>
       </c>
       <c r="K289" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L289">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="M289">
         <v>46119</v>
@@ -13388,14 +13394,14 @@
       <c r="I290">
         <v>1</v>
       </c>
-      <c r="J290">
-        <v>3</v>
+      <c r="J290" t="s">
+        <v>89</v>
       </c>
       <c r="K290" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L290">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M290">
         <v>46119</v>
@@ -13432,14 +13438,14 @@
       <c r="I291">
         <v>1</v>
       </c>
-      <c r="J291">
-        <v>3</v>
+      <c r="J291" t="s">
+        <v>89</v>
       </c>
       <c r="K291" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L291">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="M291">
         <v>46119</v>
@@ -13476,14 +13482,14 @@
       <c r="I292">
         <v>1</v>
       </c>
-      <c r="J292">
-        <v>3</v>
+      <c r="J292" t="s">
+        <v>88</v>
       </c>
       <c r="K292" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L292">
-        <v>4</v>
+        <v>525</v>
       </c>
       <c r="M292">
         <v>46121</v>
@@ -13520,14 +13526,14 @@
       <c r="I293">
         <v>1</v>
       </c>
-      <c r="J293">
-        <v>3</v>
+      <c r="J293" t="s">
+        <v>88</v>
       </c>
       <c r="K293" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L293">
-        <v>4</v>
+        <v>409</v>
       </c>
       <c r="M293">
         <v>46121</v>
@@ -13564,14 +13570,14 @@
       <c r="I294">
         <v>1</v>
       </c>
-      <c r="J294">
-        <v>3</v>
+      <c r="J294" t="s">
+        <v>89</v>
       </c>
       <c r="K294" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L294">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="M294">
         <v>46121</v>
@@ -13608,14 +13614,14 @@
       <c r="I295">
         <v>1</v>
       </c>
-      <c r="J295">
-        <v>3</v>
+      <c r="J295" t="s">
+        <v>89</v>
       </c>
       <c r="K295" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L295">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M295">
         <v>46121</v>
@@ -13652,14 +13658,14 @@
       <c r="I296">
         <v>1</v>
       </c>
-      <c r="J296">
-        <v>3</v>
+      <c r="J296" t="s">
+        <v>89</v>
       </c>
       <c r="K296" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L296">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="M296">
         <v>46121</v>
@@ -13696,14 +13702,14 @@
       <c r="I297">
         <v>1</v>
       </c>
-      <c r="J297">
-        <v>3</v>
+      <c r="J297" t="s">
+        <v>88</v>
       </c>
       <c r="K297" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L297">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="M297">
         <v>46123</v>
@@ -13740,14 +13746,14 @@
       <c r="I298">
         <v>1</v>
       </c>
-      <c r="J298">
-        <v>3</v>
+      <c r="J298" t="s">
+        <v>88</v>
       </c>
       <c r="K298" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L298">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="M298">
         <v>46123</v>
@@ -13784,14 +13790,14 @@
       <c r="I299">
         <v>1</v>
       </c>
-      <c r="J299">
-        <v>3</v>
+      <c r="J299" t="s">
+        <v>89</v>
       </c>
       <c r="K299" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L299">
-        <v>4</v>
+        <v>453</v>
       </c>
       <c r="M299">
         <v>46123</v>
@@ -13828,14 +13834,14 @@
       <c r="I300">
         <v>1</v>
       </c>
-      <c r="J300">
-        <v>3</v>
+      <c r="J300" t="s">
+        <v>89</v>
       </c>
       <c r="K300" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L300">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="M300">
         <v>46123</v>
@@ -13872,14 +13878,14 @@
       <c r="I301">
         <v>1</v>
       </c>
-      <c r="J301">
-        <v>3</v>
+      <c r="J301" t="s">
+        <v>89</v>
       </c>
       <c r="K301" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L301">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="M301">
         <v>46123</v>
@@ -13916,14 +13922,14 @@
       <c r="I302">
         <v>1</v>
       </c>
-      <c r="J302">
-        <v>3</v>
+      <c r="J302" t="s">
+        <v>88</v>
       </c>
       <c r="K302" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L302">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="M302">
         <v>46125</v>
@@ -13960,14 +13966,14 @@
       <c r="I303">
         <v>1</v>
       </c>
-      <c r="J303">
-        <v>3</v>
+      <c r="J303" t="s">
+        <v>88</v>
       </c>
       <c r="K303" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L303">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="M303">
         <v>46125</v>
@@ -14004,14 +14010,14 @@
       <c r="I304">
         <v>1</v>
       </c>
-      <c r="J304">
-        <v>3</v>
+      <c r="J304" t="s">
+        <v>89</v>
       </c>
       <c r="K304" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L304">
-        <v>4</v>
+        <v>385</v>
       </c>
       <c r="M304">
         <v>46125</v>
@@ -14048,14 +14054,14 @@
       <c r="I305">
         <v>1</v>
       </c>
-      <c r="J305">
-        <v>3</v>
+      <c r="J305" t="s">
+        <v>89</v>
       </c>
       <c r="K305" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L305">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="M305">
         <v>46125</v>
@@ -14092,14 +14098,14 @@
       <c r="I306">
         <v>1</v>
       </c>
-      <c r="J306">
-        <v>3</v>
+      <c r="J306" t="s">
+        <v>89</v>
       </c>
       <c r="K306" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L306">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="M306">
         <v>46125</v>
@@ -14136,14 +14142,14 @@
       <c r="I307">
         <v>1</v>
       </c>
-      <c r="J307">
-        <v>3</v>
+      <c r="J307" t="s">
+        <v>88</v>
       </c>
       <c r="K307" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L307">
-        <v>4</v>
+        <v>307</v>
       </c>
       <c r="M307">
         <v>46127</v>
@@ -14180,14 +14186,14 @@
       <c r="I308">
         <v>1</v>
       </c>
-      <c r="J308">
-        <v>3</v>
+      <c r="J308" t="s">
+        <v>88</v>
       </c>
       <c r="K308" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L308">
-        <v>4</v>
+        <v>381</v>
       </c>
       <c r="M308">
         <v>46127</v>
@@ -14224,14 +14230,14 @@
       <c r="I309">
         <v>1</v>
       </c>
-      <c r="J309">
-        <v>3</v>
+      <c r="J309" t="s">
+        <v>89</v>
       </c>
       <c r="K309" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L309">
-        <v>4</v>
+        <v>645</v>
       </c>
       <c r="M309">
         <v>46127</v>
@@ -14268,14 +14274,14 @@
       <c r="I310">
         <v>1</v>
       </c>
-      <c r="J310">
-        <v>3</v>
+      <c r="J310" t="s">
+        <v>89</v>
       </c>
       <c r="K310" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L310">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="M310">
         <v>46127</v>
@@ -14312,14 +14318,14 @@
       <c r="I311">
         <v>1</v>
       </c>
-      <c r="J311">
-        <v>3</v>
+      <c r="J311" t="s">
+        <v>89</v>
       </c>
       <c r="K311" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L311">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="M311">
         <v>46127</v>
@@ -14356,14 +14362,14 @@
       <c r="I312">
         <v>1</v>
       </c>
-      <c r="J312">
-        <v>3</v>
+      <c r="J312" t="s">
+        <v>88</v>
       </c>
       <c r="K312" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L312">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="M312">
         <v>46129</v>
@@ -14400,14 +14406,14 @@
       <c r="I313">
         <v>1</v>
       </c>
-      <c r="J313">
-        <v>3</v>
+      <c r="J313" t="s">
+        <v>88</v>
       </c>
       <c r="K313" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L313">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="M313">
         <v>46129</v>
@@ -14444,14 +14450,14 @@
       <c r="I314">
         <v>1</v>
       </c>
-      <c r="J314">
-        <v>3</v>
+      <c r="J314" t="s">
+        <v>89</v>
       </c>
       <c r="K314" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L314">
-        <v>4</v>
+        <v>775</v>
       </c>
       <c r="M314">
         <v>46129</v>
@@ -14488,14 +14494,14 @@
       <c r="I315">
         <v>1</v>
       </c>
-      <c r="J315">
-        <v>3</v>
+      <c r="J315" t="s">
+        <v>89</v>
       </c>
       <c r="K315" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L315">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="M315">
         <v>46129</v>
@@ -14532,14 +14538,14 @@
       <c r="I316">
         <v>1</v>
       </c>
-      <c r="J316">
-        <v>3</v>
+      <c r="J316" t="s">
+        <v>89</v>
       </c>
       <c r="K316" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L316">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="M316">
         <v>46129</v>
@@ -14576,14 +14582,14 @@
       <c r="I317">
         <v>1</v>
       </c>
-      <c r="J317">
-        <v>3</v>
+      <c r="J317" t="s">
+        <v>88</v>
       </c>
       <c r="K317" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L317">
-        <v>4</v>
+        <v>581</v>
       </c>
       <c r="M317">
         <v>46135</v>
@@ -14620,14 +14626,14 @@
       <c r="I318">
         <v>1</v>
       </c>
-      <c r="J318">
-        <v>3</v>
+      <c r="J318" t="s">
+        <v>88</v>
       </c>
       <c r="K318" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L318">
-        <v>4</v>
+        <v>707</v>
       </c>
       <c r="M318">
         <v>46135</v>
@@ -14664,14 +14670,14 @@
       <c r="I319">
         <v>1</v>
       </c>
-      <c r="J319">
-        <v>3</v>
+      <c r="J319" t="s">
+        <v>89</v>
       </c>
       <c r="K319" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L319">
-        <v>4</v>
+        <v>647</v>
       </c>
       <c r="M319">
         <v>46135</v>
@@ -14708,14 +14714,14 @@
       <c r="I320">
         <v>1</v>
       </c>
-      <c r="J320">
-        <v>3</v>
+      <c r="J320" t="s">
+        <v>89</v>
       </c>
       <c r="K320" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L320">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="M320">
         <v>46135</v>
@@ -14752,14 +14758,14 @@
       <c r="I321">
         <v>1</v>
       </c>
-      <c r="J321">
-        <v>3</v>
+      <c r="J321" t="s">
+        <v>89</v>
       </c>
       <c r="K321" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L321">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="M321">
         <v>46135</v>
@@ -14796,14 +14802,14 @@
       <c r="I322">
         <v>1</v>
       </c>
-      <c r="J322">
-        <v>3</v>
+      <c r="J322" t="s">
+        <v>88</v>
       </c>
       <c r="K322" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L322">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="M322">
         <v>46137</v>
@@ -14840,14 +14846,14 @@
       <c r="I323">
         <v>1</v>
       </c>
-      <c r="J323">
-        <v>3</v>
+      <c r="J323" t="s">
+        <v>88</v>
       </c>
       <c r="K323" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="M323">
         <v>46137</v>
@@ -14884,14 +14890,14 @@
       <c r="I324">
         <v>1</v>
       </c>
-      <c r="J324">
-        <v>3</v>
+      <c r="J324" t="s">
+        <v>89</v>
       </c>
       <c r="K324" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L324">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="M324">
         <v>46137</v>
@@ -14928,14 +14934,14 @@
       <c r="I325">
         <v>1</v>
       </c>
-      <c r="J325">
-        <v>3</v>
+      <c r="J325" t="s">
+        <v>89</v>
       </c>
       <c r="K325" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L325">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M325">
         <v>46137</v>
@@ -14972,14 +14978,14 @@
       <c r="I326">
         <v>1</v>
       </c>
-      <c r="J326">
-        <v>3</v>
+      <c r="J326" t="s">
+        <v>89</v>
       </c>
       <c r="K326" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L326">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="M326">
         <v>46137</v>
